--- a/biology/Biochimie/Monoxyde_de_carbone_déshydrogénase/Monoxyde_de_carbone_déshydrogénase.xlsx
+++ b/biology/Biochimie/Monoxyde_de_carbone_déshydrogénase/Monoxyde_de_carbone_déshydrogénase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Monoxyde_de_carbone_d%C3%A9shydrog%C3%A9nase</t>
+          <t>Monoxyde_de_carbone_déshydrogénase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,23 +490,25 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La CO déshydrogénase (CODH) est une oxydoréductase qui catalyse la réaction :
 CO + H2O + A  
         ⇌
     {\displaystyle \rightleftharpoons }
   CO2 + AH2,
-où A représente un accepteur d'électrons. Il existe deux grandes classes de cette enzyme, qui est une protéine fer-soufre dont le site actif est généralement constitué[1],[2] :
+où A représente un accepteur d'électrons. Il existe deux grandes classes de cette enzyme, qui est une protéine fer-soufre dont le site actif est généralement constitué, :
 d'un cluster fer-soufre [2Fe-2S] lié à un atome de molybdène et à un cofacteur FAD identifié chez des bactéries aérobies ;
 d'un cluster fer-soufre [3Fe-4S] lié à un atome de nickel isolé chez des bactéries anaérobies
-La CODH existe sous forme monofonctionnelle, par exemple chez Rhodospirillum rubrum, ou bifonctionnelle. Dans ce dernier cas, elle forme un ensemble bifonctionnel avec l'acétyl-CoA synthase, comme cela a été clairement caractérisé chez la bactérie anaérobie Moorella thermoacetica[3],[4]. Elle forme un complexe enzymatique membranaire avec l'hydrogénase, ou hydrogène lyase (EC 1.12.99.6), une protéine fer-soufre contenant du nickel qui catalyse quant à elle la réaction :
+La CODH existe sous forme monofonctionnelle, par exemple chez Rhodospirillum rubrum, ou bifonctionnelle. Dans ce dernier cas, elle forme un ensemble bifonctionnel avec l'acétyl-CoA synthase, comme cela a été clairement caractérisé chez la bactérie anaérobie Moorella thermoacetica,. Elle forme un complexe enzymatique membranaire avec l'hydrogénase, ou hydrogène lyase (EC 1.12.99.6), une protéine fer-soufre contenant du nickel qui catalyse quant à elle la réaction :
 H2 + A  
         ⇌
     {\displaystyle \rightleftharpoons }
   AH2, A représentant l'accepteur d'électrons.
-La CO déshydrogénase intervient dans plusieurs voies métaboliques des procaryotes, telles que le métabolisme méthanogène ou encore chez les bactéries sulfato-réductrices, acétogènes ou hydrogénogènes[1]. La réaction bidirectionnelle catalysée par la CODH joue un rôle dans le cycle du carbone permettant à certains organismes d'utiliser le monoxyde de carbone CO comme source d'énergie métabolique et d'utiliser le dioxyde de carbone CO2 comme source d'atomes de carbone.
-Lorsqu'elle est couplée à l'acétyl-CoA synthase, que ce soit sous forme d'enzymes indépendantes ou d'un complexe formé des deux enzymes liées, ces deux enzymes assurent la fixation du carbone dans la voie de Wood-Ljungdahl, appelée parfois voie réductrice de l'acétyl-CoA[5].
+La CO déshydrogénase intervient dans plusieurs voies métaboliques des procaryotes, telles que le métabolisme méthanogène ou encore chez les bactéries sulfato-réductrices, acétogènes ou hydrogénogènes. La réaction bidirectionnelle catalysée par la CODH joue un rôle dans le cycle du carbone permettant à certains organismes d'utiliser le monoxyde de carbone CO comme source d'énergie métabolique et d'utiliser le dioxyde de carbone CO2 comme source d'atomes de carbone.
+Lorsqu'elle est couplée à l'acétyl-CoA synthase, que ce soit sous forme d'enzymes indépendantes ou d'un complexe formé des deux enzymes liées, ces deux enzymes assurent la fixation du carbone dans la voie de Wood-Ljungdahl, appelée parfois voie réductrice de l'acétyl-CoA.
 </t>
         </is>
       </c>
